--- a/data/bok_item_codes.xlsx
+++ b/data/bok_item_codes.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/bok_item_codes.xlsx
+++ b/data/bok_item_codes.xlsx
@@ -550,11 +550,11 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>16998</v>
+        <v>16999</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -608,11 +608,11 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -666,11 +666,11 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>13150</v>
+        <v>13151</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -724,11 +724,11 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>8112</v>
+        <v>8113</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1246,11 +1246,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>16985</v>
+        <v>16986</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1304,11 +1304,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>16749</v>
+        <v>16750</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1362,11 +1362,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>16746</v>
+        <v>16747</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1420,11 +1420,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>15250</v>
+        <v>15251</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1478,11 +1478,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>9970</v>
+        <v>9971</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1652,11 +1652,11 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>16927</v>
+        <v>16928</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1710,11 +1710,11 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1768,11 +1768,11 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1826,11 +1826,11 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1884,11 +1884,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>8112</v>
+        <v>8113</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -1942,11 +1942,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>11263</v>
+        <v>11264</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2000,11 +2000,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>8112</v>
+        <v>8113</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2058,11 +2058,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>11263</v>
+        <v>11264</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2116,11 +2116,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2174,11 +2174,11 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2232,11 +2232,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2290,11 +2290,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2406,11 +2406,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2464,11 +2464,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2522,11 +2522,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2580,11 +2580,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2638,11 +2638,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>15973</v>
+        <v>15974</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2696,11 +2696,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>15255</v>
+        <v>15256</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>15257</v>
+        <v>15258</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2812,11 +2812,11 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -2870,11 +2870,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2928,11 +2928,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -2986,11 +2986,11 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -3044,11 +3044,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>13376</v>
+        <v>13377</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -3160,11 +3160,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -3218,11 +3218,11 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -3276,11 +3276,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>13151</v>
+        <v>13152</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -3334,11 +3334,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>13152</v>
+        <v>13153</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3392,11 +3392,11 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>13152</v>
+        <v>13153</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3450,11 +3450,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -3508,11 +3508,11 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3566,11 +3566,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -25764,11 +25764,11 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>20240808</t>
+          <t>20240809</t>
         </is>
       </c>
       <c r="L437" t="n">
-        <v>7538</v>
+        <v>7539</v>
       </c>
       <c r="M437" t="inlineStr">
         <is>
@@ -25830,11 +25830,11 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>20240808</t>
+          <t>20240809</t>
         </is>
       </c>
       <c r="L438" t="n">
-        <v>7242</v>
+        <v>7243</v>
       </c>
       <c r="M438" t="inlineStr">
         <is>
@@ -25888,11 +25888,11 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L439" t="n">
-        <v>6100</v>
+        <v>6101</v>
       </c>
       <c r="M439" t="inlineStr">
         <is>
@@ -25946,11 +25946,11 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L440" t="n">
-        <v>5180</v>
+        <v>5181</v>
       </c>
       <c r="M440" t="inlineStr">
         <is>
@@ -26004,11 +26004,11 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L441" t="n">
-        <v>4723</v>
+        <v>4724</v>
       </c>
       <c r="M441" t="inlineStr">
         <is>
@@ -26062,11 +26062,11 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L442" t="n">
-        <v>4595</v>
+        <v>4596</v>
       </c>
       <c r="M442" t="inlineStr">
         <is>
@@ -26120,11 +26120,11 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L443" t="n">
-        <v>4978</v>
+        <v>4979</v>
       </c>
       <c r="M443" t="inlineStr">
         <is>
@@ -26178,11 +26178,11 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L444" t="n">
-        <v>6080</v>
+        <v>6081</v>
       </c>
       <c r="M444" t="inlineStr">
         <is>
@@ -26236,11 +26236,11 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L445" t="n">
-        <v>5865</v>
+        <v>5866</v>
       </c>
       <c r="M445" t="inlineStr">
         <is>
@@ -26294,11 +26294,11 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L446" t="n">
-        <v>4599</v>
+        <v>4600</v>
       </c>
       <c r="M446" t="inlineStr">
         <is>
@@ -26352,11 +26352,11 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L447" t="n">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="M447" t="inlineStr">
         <is>
@@ -26410,11 +26410,11 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L448" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="M448" t="inlineStr">
         <is>
@@ -26468,11 +26468,11 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L449" t="n">
-        <v>6389</v>
+        <v>6390</v>
       </c>
       <c r="M449" t="inlineStr">
         <is>
@@ -26526,11 +26526,11 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L450" t="n">
-        <v>7539</v>
+        <v>7540</v>
       </c>
       <c r="M450" t="inlineStr">
         <is>
@@ -26584,11 +26584,11 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>20240808</t>
+          <t>20240809</t>
         </is>
       </c>
       <c r="L451" t="n">
-        <v>5458</v>
+        <v>5459</v>
       </c>
       <c r="M451" t="inlineStr">
         <is>
@@ -26642,11 +26642,11 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L452" t="n">
-        <v>6017</v>
+        <v>6018</v>
       </c>
       <c r="M452" t="inlineStr">
         <is>
@@ -26700,11 +26700,11 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L453" t="n">
-        <v>6500</v>
+        <v>6501</v>
       </c>
       <c r="M453" t="inlineStr">
         <is>
@@ -26758,11 +26758,11 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>20240808</t>
+          <t>20240809</t>
         </is>
       </c>
       <c r="L454" t="n">
-        <v>6850</v>
+        <v>6851</v>
       </c>
       <c r="M454" t="inlineStr">
         <is>
@@ -26816,11 +26816,11 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L455" t="n">
-        <v>7539</v>
+        <v>7540</v>
       </c>
       <c r="M455" t="inlineStr">
         <is>
@@ -26874,11 +26874,11 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L456" t="n">
-        <v>7539</v>
+        <v>7540</v>
       </c>
       <c r="M456" t="inlineStr">
         <is>
@@ -26932,11 +26932,11 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L457" t="n">
-        <v>5180</v>
+        <v>5181</v>
       </c>
       <c r="M457" t="inlineStr">
         <is>
@@ -26990,11 +26990,11 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>20240808</t>
+          <t>20240809</t>
         </is>
       </c>
       <c r="L458" t="n">
-        <v>7415</v>
+        <v>7416</v>
       </c>
       <c r="M458" t="inlineStr">
         <is>
@@ -27048,11 +27048,11 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L459" t="n">
-        <v>4434</v>
+        <v>4435</v>
       </c>
       <c r="M459" t="inlineStr">
         <is>
@@ -27114,11 +27114,11 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>20240808</t>
+          <t>20240809</t>
         </is>
       </c>
       <c r="L460" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M460" t="inlineStr">
         <is>
@@ -27172,11 +27172,11 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L461" t="n">
-        <v>7500</v>
+        <v>7501</v>
       </c>
       <c r="M461" t="inlineStr">
         <is>
@@ -27230,11 +27230,11 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L462" t="n">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="M462" t="inlineStr">
         <is>
@@ -27288,11 +27288,11 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>20240808</t>
+          <t>20240809</t>
         </is>
       </c>
       <c r="L463" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M463" t="inlineStr">
         <is>

--- a/data/bok_item_codes.xlsx
+++ b/data/bok_item_codes.xlsx
@@ -550,11 +550,11 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>16999</v>
+        <v>17000</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -608,11 +608,11 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -666,11 +666,11 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>13151</v>
+        <v>13152</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -724,11 +724,11 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>8113</v>
+        <v>8114</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1246,11 +1246,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>16986</v>
+        <v>16987</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1304,11 +1304,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>16750</v>
+        <v>16751</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1362,11 +1362,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>16747</v>
+        <v>16748</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1420,11 +1420,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>15251</v>
+        <v>15252</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1478,11 +1478,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>9971</v>
+        <v>9972</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1652,11 +1652,11 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>16928</v>
+        <v>16929</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1710,11 +1710,11 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1768,11 +1768,11 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1826,11 +1826,11 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1884,11 +1884,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>8113</v>
+        <v>8114</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -1942,11 +1942,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>11264</v>
+        <v>11265</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2000,11 +2000,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>8113</v>
+        <v>8114</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2058,11 +2058,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>11264</v>
+        <v>11265</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2116,11 +2116,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2174,11 +2174,11 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2232,11 +2232,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2290,11 +2290,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2406,11 +2406,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2464,11 +2464,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2522,11 +2522,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2580,11 +2580,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2638,11 +2638,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>15974</v>
+        <v>15975</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2696,11 +2696,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>15256</v>
+        <v>15257</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>15258</v>
+        <v>15259</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2812,11 +2812,11 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -2870,11 +2870,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2928,11 +2928,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -2986,11 +2986,11 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -3044,11 +3044,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>13377</v>
+        <v>13378</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -3160,11 +3160,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -3218,11 +3218,11 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -3276,11 +3276,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>13152</v>
+        <v>13153</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -3334,11 +3334,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>13153</v>
+        <v>13154</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3392,11 +3392,11 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>13153</v>
+        <v>13154</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3450,11 +3450,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -3508,11 +3508,11 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3566,11 +3566,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -25764,11 +25764,11 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L437" t="n">
-        <v>7539</v>
+        <v>7540</v>
       </c>
       <c r="M437" t="inlineStr">
         <is>
@@ -25830,11 +25830,11 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L438" t="n">
-        <v>7243</v>
+        <v>7244</v>
       </c>
       <c r="M438" t="inlineStr">
         <is>
@@ -26584,11 +26584,11 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L451" t="n">
-        <v>5459</v>
+        <v>5460</v>
       </c>
       <c r="M451" t="inlineStr">
         <is>
@@ -26758,11 +26758,11 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L454" t="n">
-        <v>6851</v>
+        <v>6852</v>
       </c>
       <c r="M454" t="inlineStr">
         <is>
@@ -26990,11 +26990,11 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L458" t="n">
-        <v>7416</v>
+        <v>7417</v>
       </c>
       <c r="M458" t="inlineStr">
         <is>
@@ -27114,11 +27114,11 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L460" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M460" t="inlineStr">
         <is>

--- a/data/bok_item_codes.xlsx
+++ b/data/bok_item_codes.xlsx
@@ -25888,11 +25888,11 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L439" t="n">
-        <v>6101</v>
+        <v>6102</v>
       </c>
       <c r="M439" t="inlineStr">
         <is>
@@ -25946,11 +25946,11 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L440" t="n">
-        <v>5181</v>
+        <v>5182</v>
       </c>
       <c r="M440" t="inlineStr">
         <is>
@@ -26004,11 +26004,11 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L441" t="n">
-        <v>4724</v>
+        <v>4725</v>
       </c>
       <c r="M441" t="inlineStr">
         <is>
@@ -26062,11 +26062,11 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L442" t="n">
-        <v>4596</v>
+        <v>4597</v>
       </c>
       <c r="M442" t="inlineStr">
         <is>
@@ -26120,11 +26120,11 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L443" t="n">
-        <v>4979</v>
+        <v>4980</v>
       </c>
       <c r="M443" t="inlineStr">
         <is>
@@ -26178,11 +26178,11 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L444" t="n">
-        <v>6081</v>
+        <v>6082</v>
       </c>
       <c r="M444" t="inlineStr">
         <is>
@@ -26236,11 +26236,11 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L445" t="n">
-        <v>5866</v>
+        <v>5867</v>
       </c>
       <c r="M445" t="inlineStr">
         <is>
@@ -26294,11 +26294,11 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L446" t="n">
-        <v>4600</v>
+        <v>4601</v>
       </c>
       <c r="M446" t="inlineStr">
         <is>
@@ -26352,11 +26352,11 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L447" t="n">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="M447" t="inlineStr">
         <is>
@@ -26410,11 +26410,11 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L448" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M448" t="inlineStr">
         <is>
@@ -26468,11 +26468,11 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L449" t="n">
-        <v>6390</v>
+        <v>6391</v>
       </c>
       <c r="M449" t="inlineStr">
         <is>
@@ -26526,11 +26526,11 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L450" t="n">
-        <v>7540</v>
+        <v>7541</v>
       </c>
       <c r="M450" t="inlineStr">
         <is>
@@ -26642,11 +26642,11 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L452" t="n">
-        <v>6018</v>
+        <v>6019</v>
       </c>
       <c r="M452" t="inlineStr">
         <is>
@@ -26700,11 +26700,11 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L453" t="n">
-        <v>6501</v>
+        <v>6502</v>
       </c>
       <c r="M453" t="inlineStr">
         <is>
@@ -26816,11 +26816,11 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L455" t="n">
-        <v>7540</v>
+        <v>7541</v>
       </c>
       <c r="M455" t="inlineStr">
         <is>
@@ -26874,11 +26874,11 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L456" t="n">
-        <v>7540</v>
+        <v>7541</v>
       </c>
       <c r="M456" t="inlineStr">
         <is>
@@ -26932,11 +26932,11 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L457" t="n">
-        <v>5181</v>
+        <v>5182</v>
       </c>
       <c r="M457" t="inlineStr">
         <is>
@@ -27048,11 +27048,11 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L459" t="n">
-        <v>4435</v>
+        <v>4436</v>
       </c>
       <c r="M459" t="inlineStr">
         <is>
@@ -27172,11 +27172,11 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L461" t="n">
-        <v>7501</v>
+        <v>7502</v>
       </c>
       <c r="M461" t="inlineStr">
         <is>
@@ -27230,11 +27230,11 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>20240812</t>
+          <t>20240813</t>
         </is>
       </c>
       <c r="L462" t="n">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="M462" t="inlineStr">
         <is>
@@ -27288,11 +27288,11 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>20240809</t>
+          <t>20240812</t>
         </is>
       </c>
       <c r="L463" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M463" t="inlineStr">
         <is>
